--- a/SeleniumPythonFramework/src/TestScript/Module2/LaunchBaiduAndSearch1/Login1.xlsx
+++ b/SeleniumPythonFramework/src/TestScript/Module2/LaunchBaiduAndSearch1/Login1.xlsx
@@ -501,7 +501,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>0113_111635.png</t>
+          <t>0118_103923.png</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -511,7 +511,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>01-13 11:16:35 launchBrowser execution was Passed</t>
+          <t>01-18 10:39:23 launchBrowser execution was Passed</t>
         </is>
       </c>
     </row>

--- a/SeleniumPythonFramework/src/TestScript/Module2/LaunchBaiduAndSearch1/Login1.xlsx
+++ b/SeleniumPythonFramework/src/TestScript/Module2/LaunchBaiduAndSearch1/Login1.xlsx
@@ -501,7 +501,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>0118_103923.png</t>
+          <t>0122_124934.png</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -511,7 +511,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>01-18 10:39:23 launchBrowser execution was Passed</t>
+          <t>01-22 12:49:34 launchBrowser execution was Passed</t>
         </is>
       </c>
     </row>

--- a/SeleniumPythonFramework/src/TestScript/Module2/LaunchBaiduAndSearch1/Login1.xlsx
+++ b/SeleniumPythonFramework/src/TestScript/Module2/LaunchBaiduAndSearch1/Login1.xlsx
@@ -501,7 +501,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>0122_124934.png</t>
+          <t>0130_215756.png</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -511,7 +511,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>01-22 12:49:34 launchBrowser execution was Passed</t>
+          <t>01-30 21:57:56 launchBrowser execution was Passed</t>
         </is>
       </c>
     </row>
